--- a/raw/sapto_aps9.xlsx
+++ b/raw/sapto_aps9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\format-excel-sapto\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E24EB-49C3-4CC7-8315-C3274E74C0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44ED99-FEE0-498B-B915-8C6199E919B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" firstSheet="27" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -2517,33 +2517,36 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2651,9 +2654,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3006,62 +3006,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3102,23 +3102,23 @@
       <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3448,9 +3448,9 @@
       <c r="G17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -3739,13 +3739,13 @@
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3857,23 +3857,23 @@
       <c r="G31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,23 +4143,23 @@
       <c r="G41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="140"/>
-      <c r="R41" s="140"/>
-      <c r="S41" s="140"/>
-      <c r="T41" s="140"/>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
-      <c r="W41" s="140"/>
-      <c r="X41" s="140"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146"/>
+      <c r="Q41" s="146"/>
+      <c r="R41" s="146"/>
+      <c r="S41" s="146"/>
+      <c r="T41" s="146"/>
+      <c r="U41" s="146"/>
+      <c r="V41" s="146"/>
+      <c r="W41" s="146"/>
+      <c r="X41" s="146"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,23 +4197,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="140"/>
-      <c r="Q43" s="140"/>
-      <c r="R43" s="140"/>
-      <c r="S43" s="140"/>
-      <c r="T43" s="140"/>
-      <c r="U43" s="140"/>
-      <c r="V43" s="140"/>
-      <c r="W43" s="140"/>
-      <c r="X43" s="140"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
+      <c r="O43" s="146"/>
+      <c r="P43" s="146"/>
+      <c r="Q43" s="146"/>
+      <c r="R43" s="146"/>
+      <c r="S43" s="146"/>
+      <c r="T43" s="146"/>
+      <c r="U43" s="146"/>
+      <c r="V43" s="146"/>
+      <c r="W43" s="146"/>
+      <c r="X43" s="146"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,12 +4251,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="142" t="s">
+      <c r="H45" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4266,10 +4266,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="143" t="s">
+      <c r="U45" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="V45" s="143"/>
+      <c r="V45" s="142"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4313,13 +4313,13 @@
       <c r="G47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="146"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4371,16 +4371,16 @@
       <c r="G49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="140"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="146"/>
+      <c r="N49" s="146"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="146"/>
+      <c r="Q49" s="146"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4429,15 +4429,15 @@
       <c r="G51" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="140"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="146"/>
+      <c r="N51" s="146"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="146"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -4616,12 +4616,12 @@
       <c r="R57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="140"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="140"/>
-      <c r="V57" s="140"/>
-      <c r="W57" s="140"/>
-      <c r="X57" s="140"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,12 +4676,12 @@
       <c r="R59" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="141">
+      <c r="S59" s="149">
         <f ca="1">TODAY()</f>
         <v>43997</v>
       </c>
-      <c r="T59" s="141"/>
-      <c r="U59" s="141"/>
+      <c r="T59" s="149"/>
+      <c r="U59" s="149"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -4748,6 +4748,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -4761,11 +4766,6 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27 H53 H51:I51 H49:I49 H47:I47 H43:I43 H29" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -4822,46 +4822,46 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165" t="s">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="47" t="s">
         <v>189</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="J5" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="165"/>
+      <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -5068,55 +5068,55 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="159" t="s">
+      <c r="K7" s="160" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="157" t="s">
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159" t="s">
+      <c r="E8" s="162"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="160" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="159" t="s">
+      <c r="I8" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
       <c r="D9" s="73" t="s">
         <v>228</v>
       </c>
@@ -5126,11 +5126,11 @@
       <c r="F9" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -5326,16 +5326,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -5804,32 +5804,32 @@
       <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="E7" s="158" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="161"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159" t="s">
+      <c r="F7" s="162"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="73" t="s">
         <v>244</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="G8" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="160"/>
+      <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
@@ -5982,24 +5982,24 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
-      <c r="B4" s="155"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="81" t="s">
         <v>189</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="E4" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="157"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="104">
@@ -6111,24 +6111,24 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
-      <c r="B4" s="155"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="81" t="s">
         <v>189</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="E4" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="157"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
@@ -6235,24 +6235,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="81" t="s">
         <v>189</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="E5" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95">
@@ -6415,24 +6415,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="81" t="s">
         <v>189</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="E5" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95">
@@ -6629,11 +6629,11 @@
       <c r="A6" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -8236,11 +8236,11 @@
       <c r="A6" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -8369,11 +8369,11 @@
       <c r="A6" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -8502,11 +8502,11 @@
       <c r="A6" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -8830,28 +8830,28 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="158" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="157" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="158" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="158"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="159"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="73" t="s">
         <v>189</v>
       </c>
@@ -8998,10 +8998,10 @@
       <c r="J11" s="96"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="170"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
@@ -9044,10 +9044,10 @@
       <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="170"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="96"/>
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
@@ -9106,10 +9106,10 @@
       <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="170"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="96"/>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -9239,48 +9239,48 @@
       <c r="P5" s="20"/>
     </row>
     <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="173" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="172" t="s">
+      <c r="G7" s="176"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="173" t="s">
         <v>292</v>
       </c>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="175" t="s">
         <v>293</v>
       </c>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="172" t="s">
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="173" t="s">
         <v>389</v>
       </c>
-      <c r="O7" s="172" t="s">
+      <c r="O7" s="173" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
+      <c r="A8" s="174"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
       <c r="F8" s="115" t="s">
         <v>294</v>
       </c>
@@ -9290,7 +9290,7 @@
       <c r="H8" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="I8" s="173"/>
+      <c r="I8" s="174"/>
       <c r="J8" s="115" t="s">
         <v>297</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="M8" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="116">
@@ -9853,25 +9853,25 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="155" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="154" t="s">
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="155" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="80" t="s">
         <v>309</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="F4" s="81" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="155"/>
+      <c r="G4" s="156"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="95">
@@ -9965,10 +9965,10 @@
       <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="181"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
       <c r="E11" s="126"/>
@@ -10343,28 +10343,28 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="151" t="s">
+      <c r="D14" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="149" t="s">
+      <c r="E14" s="153"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="150" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="45" t="s">
         <v>160</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="F15" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="150"/>
+      <c r="G15" s="151"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -10883,25 +10883,25 @@
       <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="172" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
       <c r="D4" s="127" t="s">
         <v>323</v>
       </c>
@@ -11032,28 +11032,28 @@
       <c r="A6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="172" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="172" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171" t="s">
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
       <c r="D8" s="127" t="s">
         <v>328</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="F8" s="127" t="s">
         <v>391</v>
       </c>
-      <c r="G8" s="171"/>
+      <c r="G8" s="172"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -11235,28 +11235,28 @@
       <c r="A7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="172" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="172" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="127" t="s">
         <v>328</v>
       </c>
@@ -11266,7 +11266,7 @@
       <c r="F9" s="127" t="s">
         <v>391</v>
       </c>
-      <c r="G9" s="171"/>
+      <c r="G9" s="172"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -11410,29 +11410,29 @@
       <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172" t="s">
         <v>335</v>
       </c>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="172" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="132" t="s">
         <v>337</v>
       </c>
@@ -11448,8 +11448,8 @@
       <c r="G5" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -11544,31 +11544,31 @@
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="172" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="172" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171" t="s">
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172" t="s">
         <v>343</v>
       </c>
-      <c r="K12" s="171" t="s">
+      <c r="K12" s="172" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="132" t="s">
         <v>344</v>
       </c>
@@ -11590,8 +11590,8 @@
       <c r="I13" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
@@ -11715,22 +11715,22 @@
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="157" t="s">
         <v>332</v>
       </c>
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="157" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="154" t="s">
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="171" t="s">
+      <c r="H21" s="172" t="s">
         <v>336</v>
       </c>
       <c r="I21" s="43"/>
@@ -11738,8 +11738,8 @@
       <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="132" t="s">
         <v>347</v>
       </c>
@@ -11752,8 +11752,8 @@
       <c r="F22" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="G22" s="155"/>
-      <c r="H22" s="171"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="172"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -11859,31 +11859,31 @@
       <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="161" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171" t="s">
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172" t="s">
         <v>351</v>
       </c>
-      <c r="K29" s="171" t="s">
+      <c r="K29" s="172" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="132" t="s">
         <v>344</v>
       </c>
@@ -11905,8 +11905,8 @@
       <c r="I30" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -12019,11 +12019,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -12034,11 +12034,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -12053,9 +12053,9 @@
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12092,29 +12092,29 @@
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="172" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="172" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
     </row>
     <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="137" t="s">
         <v>356</v>
       </c>
@@ -12182,7 +12182,7 @@
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="140" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="136"/>
@@ -12210,25 +12210,25 @@
       <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D13" s="171" t="s">
+      <c r="D13" s="172" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
       <c r="D14" s="137" t="s">
         <v>359</v>
       </c>
@@ -12290,7 +12290,7 @@
       <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="185" t="s">
+      <c r="A19" s="140" t="s">
         <v>192</v>
       </c>
       <c r="B19" s="136"/>
@@ -12308,25 +12308,25 @@
       <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="172" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
     </row>
     <row r="23" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="172"/>
       <c r="D23" s="137" t="s">
         <v>356</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="F27" s="78"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="140" t="s">
         <v>192</v>
       </c>
       <c r="B28" s="136"/>
@@ -12426,7 +12426,7 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -12466,25 +12466,25 @@
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="172" t="s">
         <v>363</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
       <c r="D5" s="129" t="s">
         <v>364</v>
       </c>
@@ -12596,25 +12596,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="172" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
     </row>
     <row r="5" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
       <c r="D5" s="129" t="s">
         <v>368</v>
       </c>
@@ -12720,20 +12720,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="183" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="183" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -12829,36 +12829,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="154" t="s">
+      <c r="J9" s="155" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="21" t="s">
         <v>175</v>
       </c>
@@ -12868,11 +12868,11 @@
       <c r="E10" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -13103,25 +13103,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="172" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="129" t="s">
         <v>309</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="F5" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="171"/>
+      <c r="G5" s="172"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -13237,10 +13237,10 @@
       <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="131"/>
       <c r="D14" s="131"/>
       <c r="E14" s="131"/>
@@ -13302,24 +13302,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="128" t="s">
         <v>189</v>
       </c>
@@ -13329,7 +13329,7 @@
       <c r="E5" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95">
@@ -13482,24 +13482,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="128" t="s">
         <v>189</v>
       </c>
@@ -13509,7 +13509,7 @@
       <c r="E5" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95">
@@ -13937,11 +13937,11 @@
       <c r="A7" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
@@ -14068,11 +14068,11 @@
       <c r="A7" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
@@ -14207,11 +14207,11 @@
       <c r="A7" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
@@ -14346,11 +14346,11 @@
       <c r="A7" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="168" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
@@ -14450,36 +14450,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="156" t="s">
+      <c r="J9" s="157" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="21" t="s">
         <v>175</v>
       </c>
@@ -14489,11 +14489,11 @@
       <c r="E10" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -14734,36 +14734,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="156" t="s">
+      <c r="J9" s="157" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="21" t="s">
         <v>175</v>
       </c>
@@ -14773,11 +14773,11 @@
       <c r="E10" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -14997,28 +14997,28 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="158" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="157" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="157" t="s">
+      <c r="F3" s="159"/>
+      <c r="G3" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
     </row>
     <row r="4" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="73" t="s">
         <v>186</v>
       </c>
@@ -15163,31 +15163,31 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="160" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="157" t="s">
+      <c r="D4" s="162"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="158" t="s">
         <v>386</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="157" t="s">
+      <c r="G4" s="162"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="158" t="s">
         <v>387</v>
       </c>
-      <c r="J4" s="161"/>
-      <c r="K4" s="158"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="159"/>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="73" t="s">
         <v>189</v>
       </c>
@@ -15488,62 +15488,62 @@
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="159" t="s">
+      <c r="E11" s="165"/>
+      <c r="F11" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="159" t="s">
+      <c r="G11" s="160" t="s">
         <v>205</v>
       </c>
-      <c r="H11" s="159" t="s">
+      <c r="H11" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="159" t="s">
+      <c r="I11" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="159" t="s">
+      <c r="J11" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="159" t="s">
+      <c r="K11" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="159" t="s">
+      <c r="L11" s="160" t="s">
         <v>210</v>
       </c>
-      <c r="M11" s="159" t="s">
+      <c r="M11" s="160" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="73" t="s">
         <v>212</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
@@ -15555,10 +15555,10 @@
       <c r="C13" s="74">
         <v>3</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="163">
         <v>4</v>
       </c>
-      <c r="E13" s="163"/>
+      <c r="E13" s="164"/>
       <c r="F13" s="74">
         <v>5</v>
       </c>
@@ -15902,11 +15902,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -15915,6 +15910,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G34 L14:L34" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/raw/sapto_aps9.xlsx
+++ b/raw/sapto_aps9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\format-excel-sapto\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44ED99-FEE0-498B-B915-8C6199E919B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C351EC97-B768-46C8-B923-6DA8FEF7EA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="839" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="839" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -2520,6 +2520,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2535,17 +2541,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3006,62 +3006,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3102,23 +3102,23 @@
       <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="147"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3448,9 +3448,9 @@
       <c r="G17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -3739,13 +3739,13 @@
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3797,11 +3797,11 @@
       <c r="G29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="147">
+      <c r="H29" s="148">
         <v>43536</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -3857,23 +3857,23 @@
       <c r="G31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3915,23 +3915,23 @@
       <c r="G33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,23 +4143,23 @@
       <c r="G41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="146"/>
-      <c r="R41" s="146"/>
-      <c r="S41" s="146"/>
-      <c r="T41" s="146"/>
-      <c r="U41" s="146"/>
-      <c r="V41" s="146"/>
-      <c r="W41" s="146"/>
-      <c r="X41" s="146"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
+      <c r="U41" s="141"/>
+      <c r="V41" s="141"/>
+      <c r="W41" s="141"/>
+      <c r="X41" s="141"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,23 +4197,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="146"/>
-      <c r="R43" s="146"/>
-      <c r="S43" s="146"/>
-      <c r="T43" s="146"/>
-      <c r="U43" s="146"/>
-      <c r="V43" s="146"/>
-      <c r="W43" s="146"/>
-      <c r="X43" s="146"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
+      <c r="P43" s="141"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
+      <c r="T43" s="141"/>
+      <c r="U43" s="141"/>
+      <c r="V43" s="141"/>
+      <c r="W43" s="141"/>
+      <c r="X43" s="141"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,12 +4251,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="141" t="s">
+      <c r="H45" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4266,10 +4266,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="142" t="s">
+      <c r="U45" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="V45" s="142"/>
+      <c r="V45" s="144"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4313,13 +4313,13 @@
       <c r="G47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4371,16 +4371,16 @@
       <c r="G49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146"/>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="141"/>
+      <c r="M49" s="141"/>
+      <c r="N49" s="141"/>
+      <c r="O49" s="141"/>
+      <c r="P49" s="141"/>
+      <c r="Q49" s="141"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4429,15 +4429,15 @@
       <c r="G51" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
-      <c r="N51" s="146"/>
-      <c r="O51" s="146"/>
-      <c r="P51" s="146"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="141"/>
+      <c r="M51" s="141"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="141"/>
+      <c r="P51" s="141"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -4616,12 +4616,12 @@
       <c r="R57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
+      <c r="U57" s="141"/>
+      <c r="V57" s="141"/>
+      <c r="W57" s="141"/>
+      <c r="X57" s="141"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,12 +4676,12 @@
       <c r="R59" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="149">
+      <c r="S59" s="142">
         <f ca="1">TODAY()</f>
-        <v>43997</v>
-      </c>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
+        <v>44003</v>
+      </c>
+      <c r="T59" s="142"/>
+      <c r="U59" s="142"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -4748,11 +4748,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -4766,6 +4761,11 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27 H53 H51:I51 H49:I49 H47:I47 H43:I43 H29" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -4792,17 +4792,17 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="3" customWidth="1"/>
     <col min="3" max="6" width="7.5703125" style="3" customWidth="1"/>
     <col min="7" max="10" width="7.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" style="3" customWidth="1"/>
@@ -5326,16 +5326,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -12019,11 +12019,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -12034,11 +12034,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -12426,7 +12426,7 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
@@ -15902,6 +15902,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -15910,11 +15915,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G34 L14:L34" xr:uid="{00000000-0002-0000-0800-000000000000}">
